--- a/Turma Home Jan2018/1° Sabado/Aula 1/Aula Se 1.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 1/Aula Se 1.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43F1AD-12EB-48DD-ADF0-8F693084914E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,13 +273,7 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -291,6 +286,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,142 +317,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>107673</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171129</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5226325" y="0"/>
-          <a:ext cx="1176131" cy="361629"/>
-          <a:chOff x="9009915" y="332447"/>
-          <a:chExt cx="3182085" cy="978406"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="22842"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9009915" y="332447"/>
-            <a:ext cx="3177322" cy="753404"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 2" descr="http://www.ccbeusorocaba.com.br/wp-content/uploads/2014/10/logo-site.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:biLevel thresh="25000"/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId3">
-                    <a14:imgEffect>
-                      <a14:brightnessContrast bright="20000" contrast="-40000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect t="76760"/>
-          <a:stretch/>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="9014678" y="1083922"/>
-            <a:ext cx="3177322" cy="226931"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:effectLst/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -859,205 +724,205 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="11.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>7</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>9.5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>9</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>8</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>9.5</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>8.5</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>9</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>5.5</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>9.5</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>8.5</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>7</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>9.5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>4</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>6</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>8</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>4</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>4</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>9.5</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>9</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>4</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>9.5</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>8.5</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Turma Home Jan2018/1° Sabado/Aula 1/Aula Se 1.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 1/Aula Se 1.xlsx
@@ -3,14 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43F1AD-12EB-48DD-ADF0-8F693084914E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DED6ADF-F32A-49A9-94E9-8AF730675D94}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -175,19 +184,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="0"/>
       </left>
@@ -209,19 +205,6 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -250,17 +233,6 @@
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="hair">
         <color auto="1"/>
       </top>
@@ -271,21 +243,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -296,7 +265,66 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
@@ -723,71 +751,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.140625" style="1" customWidth="1"/>
     <col min="2" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -826,103 +854,139 @@
       <c r="F9" s="5">
         <v>9</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="5">
+        <f>AVERAGE(C9:F9)</f>
+        <v>8.375</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f>IF(G9&gt;7,"Aprovado","Reprovado")</f>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="10" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>9.5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>8.5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>9</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="8">
+        <f t="shared" ref="G10:G14" si="0">AVERAGE(C10:F10)</f>
+        <v>8.75</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f t="shared" ref="H10:H14" si="1">IF(G10&gt;7,"Aprovado","Reprovado")</f>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="11" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>10</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>5.5</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>9.5</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>8.5</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>8.375</v>
+      </c>
+      <c r="H11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>9.5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>4</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>6</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>6.625</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Reprovado</v>
+      </c>
     </row>
     <row r="13" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>4</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>4</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>9.5</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>6.375</v>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Reprovado</v>
+      </c>
     </row>
     <row r="14" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>9</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>4</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>9.5</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <v>8.5</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -930,7 +994,62 @@
     <mergeCell ref="B5:K6"/>
     <mergeCell ref="B1:K2"/>
   </mergeCells>
+  <conditionalFormatting sqref="H9:H14">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Aprovado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Reprovado"</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2472512B-FB29-40C2-96D1-8ABD5B4203F1}">
+  <dimension ref="D4:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f>IF(D4&gt;D5,"YES","NÃO MANO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>